--- a/FOF/data/债券基金池.xlsx
+++ b/FOF/data/债券基金池.xlsx
@@ -17,29 +17,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>code</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>002549.OF</t>
+  </si>
+  <si>
+    <t>004544.OF</t>
+  </si>
+  <si>
+    <t>070037.OF</t>
+  </si>
+  <si>
+    <t>519723.OF</t>
+  </si>
+  <si>
+    <t>000147.OF</t>
+  </si>
+  <si>
+    <t>003358.OF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002549.OF</t>
-  </si>
-  <si>
-    <t>004544.OF</t>
-  </si>
-  <si>
-    <t>070037.OF</t>
-  </si>
-  <si>
-    <t>519723.OF</t>
-  </si>
-  <si>
-    <t>000147.OF</t>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070009.OF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -422,15 +430,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <f>[1]!f_info_name(A2)</f>
@@ -439,7 +447,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="str">
         <f>[1]!f_info_name(A3)</f>
@@ -448,7 +456,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
         <f>[1]!f_info_name(A4)</f>
@@ -457,7 +465,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
         <f>[1]!f_info_name(A5)</f>
@@ -466,11 +474,29 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="str">
         <f>[1]!f_info_name(A6)</f>
         <v>易方达高等级信用债A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="str">
+        <f>[1]!f_info_name(A7)</f>
+        <v>易方达7-10年国开行</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="str">
+        <f>[1]!f_info_name(A8)</f>
+        <v>嘉实超短债</v>
       </c>
     </row>
   </sheetData>
